--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1597710.24035109</v>
+        <v>1590364.263461425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332965</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109825</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10628372.86897382</v>
+        <v>10845187.75981517</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>35.18155893056283</v>
       </c>
       <c r="I2" t="n">
-        <v>65.29405973828457</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>44.19095768640539</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.8950372953901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>108.5609025698959</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>22.35153719005479</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>314.0836112865439</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>192.5115733777566</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>15.5789792216366</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>46.19080288195496</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,28 +1530,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>88.86957797204694</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>332.5764817894097</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664349</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958679</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183532</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>126.0077112042366</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>65.54747322920284</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>74.58273793679444</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>55.72442649149368</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>194.8108346135121</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>181.8344492986313</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.0106596486948</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>79.71208056177232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>92.06234294338209</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>45.72775912350871</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>46.18466773627755</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583938</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>79.71208056177232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>5.562624396424693</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>64.34190763938432</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.69985694152459</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>32.28492340924015</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>14.73664328357096</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>24.82250368547712</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.8952567231518</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1307.111989013772</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1307.111989013772</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>948.846290407022</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>948.846290407022</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F2" t="n">
-        <v>537.8603856174145</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G2" t="n">
-        <v>119.8965775156014</v>
+        <v>89.47991003305418</v>
       </c>
       <c r="H2" t="n">
-        <v>119.8965775156014</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.251320989584</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1307.111989013772</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4427,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>550.7989714776633</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>403.9090239797529</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>234.9092237180853</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>234.9092237180853</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>98.58031281673354</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>177.5238632251027</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>163.6004591636936</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>163.6004591636936</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4649,28 +4649,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>371.1991548370755</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.682881376601</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.226746651594</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1650.753421684039</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.790904743627</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>923.5252061368767</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>537.7369535386324</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>537.7369535386324</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>120.6491717750599</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662052</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403564</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.9120654066</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449756</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331026</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331026</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331026</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3484.789894598737</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3484.789894598737</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3153.727007255166</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>2800.958351985052</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2427.492593723972</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2037.353261748161</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662052</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>141.599614789977</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>346.44509241223</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>986.990441879334</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1660.196134132116</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.632142884838</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1073.926476585963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C13" t="n">
-        <v>984.1592261091479</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>834.0425866968121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>686.129493114419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>539.2395456165086</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>370.6327006118921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>216.3780575116571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>91.86638288598331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662052</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585963</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585963</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585963</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1073.926476585963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>1073.926476585963</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.153123480448</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1883.190606540036</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1524.924907933286</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1139.136655335041</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>728.150750545434</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662049</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403563</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604008</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3368.526868987454</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3015.758213717339</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.29245545626</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.153123480448</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835158</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.94122423782</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M15" t="n">
-        <v>1643.486573704924</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1842.143315357588</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>943.448515305365</v>
+        <v>310.3166078765829</v>
       </c>
       <c r="C16" t="n">
-        <v>943.448515305365</v>
+        <v>310.3166078765829</v>
       </c>
       <c r="D16" t="n">
-        <v>816.1679989374493</v>
+        <v>310.3166078765829</v>
       </c>
       <c r="E16" t="n">
-        <v>668.2549053550562</v>
+        <v>310.3166078765829</v>
       </c>
       <c r="F16" t="n">
-        <v>521.3649578571458</v>
+        <v>163.4266603786726</v>
       </c>
       <c r="G16" t="n">
-        <v>352.7581128525292</v>
+        <v>163.4266603786726</v>
       </c>
       <c r="H16" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662049</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222299</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230478</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422853</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783891</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669875</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>943.448515305365</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>943.448515305365</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>943.448515305365</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>943.448515305365</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>943.448515305365</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>943.448515305365</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>943.448515305365</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y16" t="n">
-        <v>943.448515305365</v>
+        <v>310.3166078765829</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,31 +5500,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,16 +5597,16 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
         <v>2016.139981183168</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>936.0662010112162</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="C19" t="n">
-        <v>860.7301020851612</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.055751909234</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>936.0662010112162</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y19" t="n">
-        <v>936.0662010112162</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="20">
@@ -5734,34 +5734,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3627.330715596854</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>3627.330715596854</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4353.080838669941</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>4098.396350464054</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>3808.979180427094</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X22" t="n">
-        <v>3808.979180427094</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y22" t="n">
-        <v>3808.979180427094</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,16 +5974,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.1935825831087</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C25" t="n">
-        <v>358.2573996552018</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D25" t="n">
-        <v>358.2573996552018</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E25" t="n">
-        <v>358.2573996552018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>358.2573996552018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>358.2573996552018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>755.183133481126</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>527.1935825831087</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.1935825831087</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6235,7 +6235,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2032.925401907737</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2312.465467126434</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2517.487947908644</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6423,13 +6423,13 @@
         <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>1194.613602254709</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>573.5346686508863</v>
+        <v>757.7241344124254</v>
       </c>
       <c r="C31" t="n">
-        <v>573.5346686508863</v>
+        <v>588.7879514845185</v>
       </c>
       <c r="D31" t="n">
-        <v>573.5346686508863</v>
+        <v>438.6713120721828</v>
       </c>
       <c r="E31" t="n">
-        <v>573.5346686508863</v>
+        <v>290.7582184897897</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>143.8682709918793</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347403</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347403</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>1275.130855347403</v>
       </c>
       <c r="W31" t="n">
-        <v>755.183133481126</v>
+        <v>985.7136853104428</v>
       </c>
       <c r="X31" t="n">
-        <v>755.183133481126</v>
+        <v>757.7241344124254</v>
       </c>
       <c r="Y31" t="n">
-        <v>755.183133481126</v>
+        <v>757.7241344124254</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1194.613602254709</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.13917884751</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4684.78764367775</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>4684.78764367775</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>4684.78764367775</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V37" t="n">
-        <v>4684.78764367775</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W37" t="n">
-        <v>4684.78764367775</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X37" t="n">
-        <v>4684.78764367775</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y37" t="n">
-        <v>4684.78764367775</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,13 +7186,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7256,22 +7256,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>745.6707680030242</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1020.446367141521</v>
+        <v>444.8933943850828</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>444.8933943850828</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W40" t="n">
-        <v>1020.446367141521</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X40" t="n">
-        <v>1020.446367141521</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y40" t="n">
-        <v>1020.446367141521</v>
+        <v>444.8933943850828</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>745.6707680030242</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3941.006808105545</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>3772.070625177638</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>3621.953985765302</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>3474.040892182909</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V43" t="n">
-        <v>4860.854573014292</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W43" t="n">
-        <v>4571.437402977332</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X43" t="n">
-        <v>4343.447852079315</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y43" t="n">
-        <v>4122.655272935785</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7815,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1322.84934122136</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.84934122136</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>1322.84934122136</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.84934122136</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928668</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>68.29886828945422</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>347.1032070028303</v>
+        <v>19.14409596997041</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139963</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.14409596997061</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>213.2603911806637</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11144,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>213.2603911806637</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229575</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.8500811932607</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>78.37724312658089</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>80.3404221565271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>22.60776181397576</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.36635513833329</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>92.66408316183339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>89.69662153143756</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>91.42651778506524</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>36.75020405346345</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>23.7819838094092</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9031687188413571</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>206.8109177748187</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>126.5223104087127</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>99.69328889942253</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>120.3089007271</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>206.8109177748187</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.9309440669529</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.5789023442189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>119.5469641571032</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>116.3305496089722</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>130.6844047393603</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>227.3151396383509</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>47.24130101521246</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542553</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801712.5440420802</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801712.5440420802</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="16">
@@ -26316,40 +26316,40 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473217</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473217</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188428</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659105</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965295</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991126</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007488</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360138</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360135</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.988321912</v>
+        <v>-348644.9883219118</v>
       </c>
       <c r="C6" t="n">
-        <v>241322.8908926327</v>
+        <v>241322.8908926326</v>
       </c>
       <c r="D6" t="n">
         <v>241322.8908926326</v>
       </c>
       <c r="E6" t="n">
-        <v>62404.412526801</v>
+        <v>-176355.2666429768</v>
       </c>
       <c r="F6" t="n">
-        <v>310551.181145644</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="G6" t="n">
-        <v>86016.47182773055</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="H6" t="n">
-        <v>349779.361093641</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="I6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="J6" t="n">
-        <v>173356.1419010481</v>
+        <v>172381.5506413266</v>
       </c>
       <c r="K6" t="n">
-        <v>349779.3610936413</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="L6" t="n">
-        <v>349779.3610936413</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="M6" t="n">
-        <v>287326.3052039882</v>
+        <v>214003.7546000823</v>
       </c>
       <c r="N6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339193</v>
       </c>
       <c r="O6" t="n">
-        <v>279914.4762437299</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="P6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339194</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380634</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827565</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827561</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209769</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160368</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282008</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708169</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282008</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708169</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282008</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708169</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>288.7412138337943</v>
       </c>
       <c r="I2" t="n">
-        <v>86.63725650657668</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.009001502131603</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>43.37041367496536</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6835682680295</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>99.70055873425105</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>177.2195273007124</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>130.8549834249326</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,7 +28028,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29723,7 +29723,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198243</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651535</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779012</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>376.502430971252</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074812</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359658</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822507</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426691</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457569</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810501</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916531</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512814</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900643</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947068</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080781</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308302</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.51507583820699</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784121</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490358</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790237</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441086</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104756</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937804</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522781</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268336</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>206.9146238608616</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122262</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.9666072747238</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.545352539127</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040854</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517152</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>638.098798973041</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233093</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588822</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312121</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584801</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>485.7189625742375</v>
+        <v>268.4018009259947</v>
       </c>
       <c r="M15" t="n">
-        <v>647.015504512226</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>200.663375406731</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502624</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105728</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>186.699994849311</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233372</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369851</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353173</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700205</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35977,7 +35977,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36685,16 +36685,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.1571287550447</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366879</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37642,7 +37642,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366879</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37879,7 +37879,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1590364.263461425</v>
+        <v>1595303.526310457</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>35.18155893056283</v>
+        <v>145.5578725085364</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>99.660750746876</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>108.5609025698959</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>195.9544420980503</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>314.0836112865439</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>142.3945047270888</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586885</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>115.5269768002176</v>
+        <v>80.09089934704872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>61.86209105104108</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>65.54747322920284</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>55.72442649149368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.0920728594996</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>181.8344492986313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>92.06234294338209</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>46.18466773627755</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583938</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>5.562624396424693</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>183.6274390026643</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>32.28492340924015</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>24.82250368547712</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>224.8952567231518</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>23.39375411340983</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>984.1461433271581</v>
       </c>
       <c r="D2" t="n">
-        <v>1304.217875522719</v>
+        <v>625.8804447204077</v>
       </c>
       <c r="E2" t="n">
-        <v>918.4296229244749</v>
+        <v>625.8804447204077</v>
       </c>
       <c r="F2" t="n">
-        <v>507.4437181348673</v>
+        <v>618.9349439712042</v>
       </c>
       <c r="G2" t="n">
-        <v>89.47991003305418</v>
+        <v>200.9711358693911</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,22 +4436,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>154.6104068172089</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>588.5097680147103</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>588.5097680147103</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>177.5238632251027</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>163.6004591636936</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>163.6004591636936</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862789</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1446555862789</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="D8" t="n">
-        <v>378.1446555862789</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="E8" t="n">
-        <v>378.1446555862789</v>
+        <v>1353.920247733448</v>
       </c>
       <c r="F8" t="n">
-        <v>371.1991548370755</v>
+        <v>942.9343429438402</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>524.9705348420271</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>197.7758148780299</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201016</v>
+        <v>773.454678735334</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201016</v>
+        <v>955.1031435655738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>940.1463453738957</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.3166078765829</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C16" t="n">
-        <v>310.3166078765829</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>310.3166078765829</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>310.3166078765829</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>163.4266603786726</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>163.4266603786726</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X16" t="n">
-        <v>531.109187020113</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.3166078765829</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="17">
@@ -5497,34 +5497,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,22 +5597,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6797126268225</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C19" t="n">
-        <v>321.6797126268225</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>321.6797126268225</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>321.6797126268225</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
@@ -5712,13 +5712,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550796</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570622</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.3281774570622</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,16 +5752,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.579090436494</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>781.5895395384766</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,16 +6226,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028583</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104475</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>985.7136853104475</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>757.7241344124254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>588.7879514845185</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>438.6713120721828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>290.7582184897897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>143.8682709918793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347403</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347403</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347403</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>985.7136853104428</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>757.7241344124254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>757.7241344124254</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,16 +7013,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.8359039819269</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>102.8359039819269</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>102.8359039819269</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>102.8359039819269</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227918</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>620.2426249169049</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W37" t="n">
-        <v>330.8254548799443</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X37" t="n">
-        <v>102.8359039819269</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.8359039819269</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>745.6707680030242</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8933943850828</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C40" t="n">
-        <v>444.8933943850828</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7365,19 +7365,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.78763177146</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655735</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>665.685973528613</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>665.685973528613</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.8933943850828</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,43 +7405,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7456,7 +7456,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>745.6707680030242</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>939.0625057788493</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>939.0625057788493</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>711.072954880832</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.072954880832</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7730,10 +7730,10 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028587</v>
@@ -7815,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>19.14409596997041</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>213.2603911806637</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>213.2603911806637</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.71984429841024</v>
+        <v>87.15592175157911</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>117.9698891308962</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.36635513833329</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>89.69662153143756</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>196.3876396860913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>14.45548819888961</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.75020405346345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>23.7819838094092</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.34209567542895</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.5223104087127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>120.3089007271</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.9309440669529</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>42.08221638637286</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>116.3305496089722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>29.89407122271363</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>227.3151396383509</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,7 +26079,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>61.34209567542553</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>195.1908992386849</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="F2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449683.4186983651</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983653</v>
@@ -26340,22 +26340,22 @@
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.418698365</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,25 +26441,25 @@
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007487</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007488</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26496,19 +26496,19 @@
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26527,43 +26527,43 @@
         <v>241322.8908926326</v>
       </c>
       <c r="D6" t="n">
-        <v>241322.8908926326</v>
+        <v>241322.8908926327</v>
       </c>
       <c r="E6" t="n">
-        <v>-176355.2666429768</v>
+        <v>-175478.1345092269</v>
       </c>
       <c r="F6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="G6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="H6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.9019676689</v>
       </c>
       <c r="I6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.901967669</v>
       </c>
       <c r="J6" t="n">
-        <v>172381.5506413266</v>
+        <v>173258.682775076</v>
       </c>
       <c r="K6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.9019676691</v>
       </c>
       <c r="L6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.901967669</v>
       </c>
       <c r="M6" t="n">
-        <v>214003.7546000823</v>
+        <v>214880.886733832</v>
       </c>
       <c r="N6" t="n">
-        <v>348804.7698339193</v>
+        <v>349681.9019676689</v>
       </c>
       <c r="O6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.901967669</v>
       </c>
       <c r="P6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.9019676691</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>288.7412138337943</v>
+        <v>178.3649002558208</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>35.30487104546222</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>43.37041367496536</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>131.7978163720846</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>99.70055873425105</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>9.536811517772406</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29723,7 +29723,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932195</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>268.4018009259947</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36448,13 +36448,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>492.2066737115375</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>462.5180961366879</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>462.5180961366879</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034995</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
